--- a/files/avg-pm25-by-countries-desc.xlsx
+++ b/files/avg-pm25-by-countries-desc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="PM25&gt;=50" sheetId="1" r:id="rId1"/>
+    <sheet name="AVG(PM2.5)" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
